--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18035,6 +18035,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>45447.2916666667</v>
+      </c>
+      <c r="B653" t="n">
+        <v>950</v>
+      </c>
+      <c r="C653" t="n">
+        <v>26.7999992370605</v>
+      </c>
+      <c r="D653" t="n">
+        <v>26.6000003814697</v>
+      </c>
+      <c r="E653" t="n">
+        <v>26.7999992370605</v>
+      </c>
+      <c r="F653" t="n">
+        <v>26.6000003814697</v>
+      </c>
+      <c r="G653" t="s">
+        <v>242</v>
+      </c>
+      <c r="H653" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18061,6 +18061,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>45448.2931481482</v>
+      </c>
+      <c r="B654" t="n">
+        <v>1850</v>
+      </c>
+      <c r="C654" t="n">
+        <v>26.7999992370605</v>
+      </c>
+      <c r="D654" t="n">
+        <v>26.7999992370605</v>
+      </c>
+      <c r="E654" t="n">
+        <v>26.7999992370605</v>
+      </c>
+      <c r="F654" t="n">
+        <v>26.7999992370605</v>
+      </c>
+      <c r="G654" t="s">
+        <v>243</v>
+      </c>
+      <c r="H654" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18063,7 +18063,7 @@
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>45448.2931481482</v>
+        <v>45448.2916666667</v>
       </c>
       <c r="B654" t="n">
         <v>1850</v>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18087,6 +18087,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>45449.2916666667</v>
+      </c>
+      <c r="B655" t="n">
+        <v>650</v>
+      </c>
+      <c r="C655" t="n">
+        <v>26.6000003814697</v>
+      </c>
+      <c r="D655" t="n">
+        <v>26.6000003814697</v>
+      </c>
+      <c r="E655" t="n">
+        <v>26.6000003814697</v>
+      </c>
+      <c r="F655" t="n">
+        <v>26.6000003814697</v>
+      </c>
+      <c r="G655" t="s">
+        <v>242</v>
+      </c>
+      <c r="H655" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18113,6 +18113,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>45450.2916666667</v>
+      </c>
+      <c r="B656" t="n">
+        <v>2800</v>
+      </c>
+      <c r="C656" t="n">
+        <v>26.7999992370605</v>
+      </c>
+      <c r="D656" t="n">
+        <v>26.6000003814697</v>
+      </c>
+      <c r="E656" t="n">
+        <v>26.6000003814697</v>
+      </c>
+      <c r="F656" t="n">
+        <v>26.7999992370605</v>
+      </c>
+      <c r="G656" t="s">
+        <v>243</v>
+      </c>
+      <c r="H656" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18139,6 +18139,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>45453.2916666667</v>
+      </c>
+      <c r="B657" t="n">
+        <v>700</v>
+      </c>
+      <c r="C657" t="n">
+        <v>26.7999992370605</v>
+      </c>
+      <c r="D657" t="n">
+        <v>26.6000003814697</v>
+      </c>
+      <c r="E657" t="n">
+        <v>26.7999992370605</v>
+      </c>
+      <c r="F657" t="n">
+        <v>26.6000003814697</v>
+      </c>
+      <c r="G657" t="s">
+        <v>242</v>
+      </c>
+      <c r="H657" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18165,6 +18165,58 @@
         <v>9</v>
       </c>
     </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>45454.2916666667</v>
+      </c>
+      <c r="B658" t="n">
+        <v>0</v>
+      </c>
+      <c r="C658" t="n">
+        <v>26.6000003814697</v>
+      </c>
+      <c r="D658" t="n">
+        <v>26.6000003814697</v>
+      </c>
+      <c r="E658" t="n">
+        <v>26.6000003814697</v>
+      </c>
+      <c r="F658" t="n">
+        <v>26.6000003814697</v>
+      </c>
+      <c r="G658" t="s">
+        <v>242</v>
+      </c>
+      <c r="H658" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>45455.3398263889</v>
+      </c>
+      <c r="B659" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C659" t="n">
+        <v>26.7999992370605</v>
+      </c>
+      <c r="D659" t="n">
+        <v>26.7999992370605</v>
+      </c>
+      <c r="E659" t="n">
+        <v>26.7999992370605</v>
+      </c>
+      <c r="F659" t="n">
+        <v>26.7999992370605</v>
+      </c>
+      <c r="G659" t="s">
+        <v>243</v>
+      </c>
+      <c r="H659" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18193,7 +18193,7 @@
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>45455.3398263889</v>
+        <v>45455.2916666667</v>
       </c>
       <c r="B659" t="n">
         <v>1000</v>
@@ -18214,6 +18214,32 @@
         <v>243</v>
       </c>
       <c r="H659" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>45456.2916666667</v>
+      </c>
+      <c r="B660" t="n">
+        <v>1100</v>
+      </c>
+      <c r="C660" t="n">
+        <v>26.6000003814697</v>
+      </c>
+      <c r="D660" t="n">
+        <v>26.6000003814697</v>
+      </c>
+      <c r="E660" t="n">
+        <v>26.6000003814697</v>
+      </c>
+      <c r="F660" t="n">
+        <v>26.6000003814697</v>
+      </c>
+      <c r="G660" t="s">
+        <v>242</v>
+      </c>
+      <c r="H660" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18243,6 +18243,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>45457.2916666667</v>
+      </c>
+      <c r="B661" t="n">
+        <v>11650</v>
+      </c>
+      <c r="C661" t="n">
+        <v>27</v>
+      </c>
+      <c r="D661" t="n">
+        <v>26.7999992370605</v>
+      </c>
+      <c r="E661" t="n">
+        <v>26.7999992370605</v>
+      </c>
+      <c r="F661" t="n">
+        <v>27</v>
+      </c>
+      <c r="G661" t="s">
+        <v>149</v>
+      </c>
+      <c r="H661" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18269,6 +18269,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>45460.2916666667</v>
+      </c>
+      <c r="B662" t="n">
+        <v>15650</v>
+      </c>
+      <c r="C662" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="D662" t="n">
+        <v>26.7999992370605</v>
+      </c>
+      <c r="E662" t="n">
+        <v>26.7999992370605</v>
+      </c>
+      <c r="F662" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="G662" t="s">
+        <v>134</v>
+      </c>
+      <c r="H662" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18295,6 +18295,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>45461.2916666667</v>
+      </c>
+      <c r="B663" t="n">
+        <v>1400</v>
+      </c>
+      <c r="C663" t="n">
+        <v>27.7999992370605</v>
+      </c>
+      <c r="D663" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="E663" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="F663" t="n">
+        <v>27.7999992370605</v>
+      </c>
+      <c r="G663" t="s">
+        <v>132</v>
+      </c>
+      <c r="H663" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18321,6 +18321,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>45462.2916666667</v>
+      </c>
+      <c r="B664" t="n">
+        <v>3850</v>
+      </c>
+      <c r="C664" t="n">
+        <v>27.7999992370605</v>
+      </c>
+      <c r="D664" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="E664" t="n">
+        <v>27.7999992370605</v>
+      </c>
+      <c r="F664" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="G664" t="s">
+        <v>148</v>
+      </c>
+      <c r="H664" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18347,6 +18347,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>45463.2916666667</v>
+      </c>
+      <c r="B665" t="n">
+        <v>2200</v>
+      </c>
+      <c r="C665" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="D665" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="E665" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="F665" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="G665" t="s">
+        <v>148</v>
+      </c>
+      <c r="H665" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18373,6 +18373,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>45464.2916666667</v>
+      </c>
+      <c r="B666" t="n">
+        <v>6050</v>
+      </c>
+      <c r="C666" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="D666" t="n">
+        <v>27</v>
+      </c>
+      <c r="E666" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="F666" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="G666" t="s">
+        <v>134</v>
+      </c>
+      <c r="H666" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18399,6 +18399,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>45467.2916666667</v>
+      </c>
+      <c r="B667" t="n">
+        <v>13600</v>
+      </c>
+      <c r="C667" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="D667" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="E667" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="F667" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="G667" t="s">
+        <v>134</v>
+      </c>
+      <c r="H667" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18425,6 +18425,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>45468.2916666667</v>
+      </c>
+      <c r="B668" t="n">
+        <v>3100</v>
+      </c>
+      <c r="C668" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="D668" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="E668" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="F668" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="G668" t="s">
+        <v>134</v>
+      </c>
+      <c r="H668" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18451,6 +18451,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>45469.5950462963</v>
+      </c>
+      <c r="B669" t="n">
+        <v>1750</v>
+      </c>
+      <c r="C669" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="D669" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="E669" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="F669" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="G669" t="s">
+        <v>148</v>
+      </c>
+      <c r="H669" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18453,7 +18453,7 @@
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
-        <v>45469.5950462963</v>
+        <v>45469.2916666667</v>
       </c>
       <c r="B669" t="n">
         <v>1750</v>
@@ -18474,6 +18474,32 @@
         <v>148</v>
       </c>
       <c r="H669" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>45470.6321180556</v>
+      </c>
+      <c r="B670" t="n">
+        <v>2300</v>
+      </c>
+      <c r="C670" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="D670" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="E670" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="F670" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="G670" t="s">
+        <v>134</v>
+      </c>
+      <c r="H670" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18479,7 +18479,7 @@
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
-        <v>45470.6321180556</v>
+        <v>45470.2916666667</v>
       </c>
       <c r="B670" t="n">
         <v>2300</v>
@@ -18500,6 +18500,32 @@
         <v>134</v>
       </c>
       <c r="H670" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>45471.6493865741</v>
+      </c>
+      <c r="B671" t="n">
+        <v>10850</v>
+      </c>
+      <c r="C671" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="D671" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="E671" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="F671" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="G671" t="s">
+        <v>148</v>
+      </c>
+      <c r="H671" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18505,7 +18505,7 @@
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
-        <v>45471.6493865741</v>
+        <v>45471.2916666667</v>
       </c>
       <c r="B671" t="n">
         <v>10850</v>
@@ -18526,6 +18526,32 @@
         <v>148</v>
       </c>
       <c r="H671" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>45474.6003587963</v>
+      </c>
+      <c r="B672" t="n">
+        <v>1500</v>
+      </c>
+      <c r="C672" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="D672" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="E672" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="F672" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="G672" t="s">
+        <v>134</v>
+      </c>
+      <c r="H672" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18531,7 +18531,7 @@
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
-        <v>45474.6003587963</v>
+        <v>45474.2916666667</v>
       </c>
       <c r="B672" t="n">
         <v>1500</v>
@@ -18540,7 +18540,7 @@
         <v>27.3999996185303</v>
       </c>
       <c r="D672" t="n">
-        <v>27.3999996185303</v>
+        <v>27.2000007629395</v>
       </c>
       <c r="E672" t="n">
         <v>27.3999996185303</v>
@@ -18552,6 +18552,32 @@
         <v>134</v>
       </c>
       <c r="H672" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>45475.4178819444</v>
+      </c>
+      <c r="B673" t="n">
+        <v>3900</v>
+      </c>
+      <c r="C673" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="D673" t="n">
+        <v>27</v>
+      </c>
+      <c r="E673" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="F673" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="G673" t="s">
+        <v>134</v>
+      </c>
+      <c r="H673" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18557,7 +18557,7 @@
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
-        <v>45475.4178819444</v>
+        <v>45475.2916666667</v>
       </c>
       <c r="B673" t="n">
         <v>3900</v>
@@ -18578,6 +18578,32 @@
         <v>134</v>
       </c>
       <c r="H673" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>45476.5458796296</v>
+      </c>
+      <c r="B674" t="n">
+        <v>3850</v>
+      </c>
+      <c r="C674" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="D674" t="n">
+        <v>27</v>
+      </c>
+      <c r="E674" t="n">
+        <v>27</v>
+      </c>
+      <c r="F674" t="n">
+        <v>27</v>
+      </c>
+      <c r="G674" t="s">
+        <v>149</v>
+      </c>
+      <c r="H674" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18583,7 +18583,7 @@
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
-        <v>45476.5458796296</v>
+        <v>45476.2916666667</v>
       </c>
       <c r="B674" t="n">
         <v>3850</v>
@@ -18604,6 +18604,32 @@
         <v>149</v>
       </c>
       <c r="H674" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>45477.5907523148</v>
+      </c>
+      <c r="B675" t="n">
+        <v>6750</v>
+      </c>
+      <c r="C675" t="n">
+        <v>27</v>
+      </c>
+      <c r="D675" t="n">
+        <v>27</v>
+      </c>
+      <c r="E675" t="n">
+        <v>27</v>
+      </c>
+      <c r="F675" t="n">
+        <v>27</v>
+      </c>
+      <c r="G675" t="s">
+        <v>149</v>
+      </c>
+      <c r="H675" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18609,7 +18609,7 @@
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
-        <v>45477.5907523148</v>
+        <v>45477.2916666667</v>
       </c>
       <c r="B675" t="n">
         <v>6750</v>
@@ -18630,6 +18630,32 @@
         <v>149</v>
       </c>
       <c r="H675" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>45478.6094791667</v>
+      </c>
+      <c r="B676" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C676" t="n">
+        <v>27</v>
+      </c>
+      <c r="D676" t="n">
+        <v>27</v>
+      </c>
+      <c r="E676" t="n">
+        <v>27</v>
+      </c>
+      <c r="F676" t="n">
+        <v>27</v>
+      </c>
+      <c r="G676" t="s">
+        <v>149</v>
+      </c>
+      <c r="H676" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18635,7 +18635,7 @@
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
-        <v>45478.6094791667</v>
+        <v>45478.2916666667</v>
       </c>
       <c r="B676" t="n">
         <v>1800</v>
@@ -18656,6 +18656,32 @@
         <v>149</v>
       </c>
       <c r="H676" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>45481.6415625</v>
+      </c>
+      <c r="B677" t="n">
+        <v>650</v>
+      </c>
+      <c r="C677" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="D677" t="n">
+        <v>27</v>
+      </c>
+      <c r="E677" t="n">
+        <v>27</v>
+      </c>
+      <c r="F677" t="n">
+        <v>27</v>
+      </c>
+      <c r="G677" t="s">
+        <v>149</v>
+      </c>
+      <c r="H677" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18661,7 +18661,7 @@
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
-        <v>45481.6415625</v>
+        <v>45481.2916666667</v>
       </c>
       <c r="B677" t="n">
         <v>650</v>
@@ -18682,6 +18682,32 @@
         <v>149</v>
       </c>
       <c r="H677" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>45482.6377546296</v>
+      </c>
+      <c r="B678" t="n">
+        <v>2100</v>
+      </c>
+      <c r="C678" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="D678" t="n">
+        <v>27</v>
+      </c>
+      <c r="E678" t="n">
+        <v>27</v>
+      </c>
+      <c r="F678" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="G678" t="s">
+        <v>134</v>
+      </c>
+      <c r="H678" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18687,7 +18687,7 @@
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
-        <v>45482.6377546296</v>
+        <v>45482.2916666667</v>
       </c>
       <c r="B678" t="n">
         <v>2100</v>
@@ -18708,6 +18708,32 @@
         <v>134</v>
       </c>
       <c r="H678" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>45483.5823148148</v>
+      </c>
+      <c r="B679" t="n">
+        <v>4300</v>
+      </c>
+      <c r="C679" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="D679" t="n">
+        <v>27</v>
+      </c>
+      <c r="E679" t="n">
+        <v>27</v>
+      </c>
+      <c r="F679" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="G679" t="s">
+        <v>148</v>
+      </c>
+      <c r="H679" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18713,7 +18713,7 @@
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
-        <v>45483.5823148148</v>
+        <v>45483.2916666667</v>
       </c>
       <c r="B679" t="n">
         <v>4300</v>
@@ -18734,6 +18734,32 @@
         <v>148</v>
       </c>
       <c r="H679" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>45484.5966203704</v>
+      </c>
+      <c r="B680" t="n">
+        <v>5500</v>
+      </c>
+      <c r="C680" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="D680" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="E680" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="F680" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="G680" t="s">
+        <v>148</v>
+      </c>
+      <c r="H680" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18739,13 +18739,13 @@
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
-        <v>45484.5966203704</v>
+        <v>45484.2916666667</v>
       </c>
       <c r="B680" t="n">
         <v>5500</v>
       </c>
       <c r="C680" t="n">
-        <v>27.2000007629395</v>
+        <v>27.6000003814697</v>
       </c>
       <c r="D680" t="n">
         <v>27.2000007629395</v>
@@ -18760,6 +18760,32 @@
         <v>148</v>
       </c>
       <c r="H680" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>45485.5952314815</v>
+      </c>
+      <c r="B681" t="n">
+        <v>1550</v>
+      </c>
+      <c r="C681" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="D681" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="E681" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="F681" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="G681" t="s">
+        <v>134</v>
+      </c>
+      <c r="H681" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18765,7 +18765,7 @@
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
-        <v>45485.5952314815</v>
+        <v>45485.2916666667</v>
       </c>
       <c r="B681" t="n">
         <v>1550</v>
@@ -18786,6 +18786,32 @@
         <v>134</v>
       </c>
       <c r="H681" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>45488.6065972222</v>
+      </c>
+      <c r="B682" t="n">
+        <v>2400</v>
+      </c>
+      <c r="C682" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="D682" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="E682" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="F682" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="G682" t="s">
+        <v>134</v>
+      </c>
+      <c r="H682" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18791,7 +18791,7 @@
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
-        <v>45488.6065972222</v>
+        <v>45488.2916666667</v>
       </c>
       <c r="B682" t="n">
         <v>2400</v>
@@ -18812,6 +18812,32 @@
         <v>134</v>
       </c>
       <c r="H682" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>45489.6494791667</v>
+      </c>
+      <c r="B683" t="n">
+        <v>33150</v>
+      </c>
+      <c r="C683" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="D683" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="E683" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="F683" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="G683" t="s">
+        <v>148</v>
+      </c>
+      <c r="H683" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18817,7 +18817,7 @@
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
-        <v>45489.6494791667</v>
+        <v>45489.2916666667</v>
       </c>
       <c r="B683" t="n">
         <v>33150</v>
@@ -18838,6 +18838,32 @@
         <v>148</v>
       </c>
       <c r="H683" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>45490.6495949074</v>
+      </c>
+      <c r="B684" t="n">
+        <v>5950</v>
+      </c>
+      <c r="C684" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="D684" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="E684" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="F684" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="G684" t="s">
+        <v>134</v>
+      </c>
+      <c r="H684" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18843,7 +18843,7 @@
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
-        <v>45490.6495949074</v>
+        <v>45490.2916666667</v>
       </c>
       <c r="B684" t="n">
         <v>5950</v>
@@ -18864,6 +18864,32 @@
         <v>134</v>
       </c>
       <c r="H684" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>45491.6007638889</v>
+      </c>
+      <c r="B685" t="n">
+        <v>4400</v>
+      </c>
+      <c r="C685" t="n">
+        <v>27</v>
+      </c>
+      <c r="D685" t="n">
+        <v>26.6000003814697</v>
+      </c>
+      <c r="E685" t="n">
+        <v>27</v>
+      </c>
+      <c r="F685" t="n">
+        <v>26.6000003814697</v>
+      </c>
+      <c r="G685" t="s">
+        <v>242</v>
+      </c>
+      <c r="H685" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18869,7 +18869,7 @@
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
-        <v>45491.6007638889</v>
+        <v>45491.2916666667</v>
       </c>
       <c r="B685" t="n">
         <v>4400</v>
@@ -18890,6 +18890,32 @@
         <v>242</v>
       </c>
       <c r="H685" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>45492.5820486111</v>
+      </c>
+      <c r="B686" t="n">
+        <v>7850</v>
+      </c>
+      <c r="C686" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="D686" t="n">
+        <v>27</v>
+      </c>
+      <c r="E686" t="n">
+        <v>27</v>
+      </c>
+      <c r="F686" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="G686" t="s">
+        <v>134</v>
+      </c>
+      <c r="H686" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18895,7 +18895,7 @@
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
-        <v>45492.5820486111</v>
+        <v>45492.2916666667</v>
       </c>
       <c r="B686" t="n">
         <v>7850</v>
@@ -18916,6 +18916,32 @@
         <v>134</v>
       </c>
       <c r="H686" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>45495.6166898148</v>
+      </c>
+      <c r="B687" t="n">
+        <v>2450</v>
+      </c>
+      <c r="C687" t="n">
+        <v>27.7999992370605</v>
+      </c>
+      <c r="D687" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="E687" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="F687" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="G687" t="s">
+        <v>148</v>
+      </c>
+      <c r="H687" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18921,7 +18921,7 @@
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
-        <v>45495.6166898148</v>
+        <v>45495.2916666667</v>
       </c>
       <c r="B687" t="n">
         <v>2450</v>
@@ -18942,6 +18942,32 @@
         <v>148</v>
       </c>
       <c r="H687" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>45496.4256365741</v>
+      </c>
+      <c r="B688" t="n">
+        <v>1350</v>
+      </c>
+      <c r="C688" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="D688" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="E688" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="F688" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="G688" t="s">
+        <v>148</v>
+      </c>
+      <c r="H688" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18947,7 +18947,7 @@
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
-        <v>45496.4256365741</v>
+        <v>45496.2916666667</v>
       </c>
       <c r="B688" t="n">
         <v>1350</v>
@@ -18968,6 +18968,32 @@
         <v>148</v>
       </c>
       <c r="H688" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>45497.5985763889</v>
+      </c>
+      <c r="B689" t="n">
+        <v>650</v>
+      </c>
+      <c r="C689" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="D689" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="E689" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="F689" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="G689" t="s">
+        <v>148</v>
+      </c>
+      <c r="H689" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18973,7 +18973,7 @@
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
-        <v>45497.5985763889</v>
+        <v>45497.2916666667</v>
       </c>
       <c r="B689" t="n">
         <v>650</v>
@@ -18994,6 +18994,32 @@
         <v>148</v>
       </c>
       <c r="H689" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>45498.5646759259</v>
+      </c>
+      <c r="B690" t="n">
+        <v>2550</v>
+      </c>
+      <c r="C690" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="D690" t="n">
+        <v>27</v>
+      </c>
+      <c r="E690" t="n">
+        <v>27.3999996185303</v>
+      </c>
+      <c r="F690" t="n">
+        <v>27</v>
+      </c>
+      <c r="G690" t="s">
+        <v>149</v>
+      </c>
+      <c r="H690" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -18999,7 +18999,7 @@
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
-        <v>45498.5646759259</v>
+        <v>45498.2916666667</v>
       </c>
       <c r="B690" t="n">
         <v>2550</v>
@@ -19020,6 +19020,32 @@
         <v>149</v>
       </c>
       <c r="H690" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>45499.6159027778</v>
+      </c>
+      <c r="B691" t="n">
+        <v>550</v>
+      </c>
+      <c r="C691" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="D691" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="E691" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="F691" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="G691" t="s">
+        <v>134</v>
+      </c>
+      <c r="H691" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -19025,7 +19025,7 @@
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
-        <v>45499.6159027778</v>
+        <v>45499.2916666667</v>
       </c>
       <c r="B691" t="n">
         <v>550</v>
@@ -19046,6 +19046,32 @@
         <v>134</v>
       </c>
       <c r="H691" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>45502.6445138889</v>
+      </c>
+      <c r="B692" t="n">
+        <v>550</v>
+      </c>
+      <c r="C692" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="D692" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="E692" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="F692" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="G692" t="s">
+        <v>134</v>
+      </c>
+      <c r="H692" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -19051,7 +19051,7 @@
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
-        <v>45502.6445138889</v>
+        <v>45502.2916666667</v>
       </c>
       <c r="B692" t="n">
         <v>550</v>
@@ -19072,6 +19072,32 @@
         <v>134</v>
       </c>
       <c r="H692" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>45503.4856365741</v>
+      </c>
+      <c r="B693" t="n">
+        <v>500</v>
+      </c>
+      <c r="C693" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="D693" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="E693" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="F693" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="G693" t="s">
+        <v>134</v>
+      </c>
+      <c r="H693" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -19077,7 +19077,7 @@
     </row>
     <row r="693">
       <c r="A693" s="1" t="n">
-        <v>45503.4856365741</v>
+        <v>45503.2916666667</v>
       </c>
       <c r="B693" t="n">
         <v>500</v>
@@ -19098,6 +19098,32 @@
         <v>134</v>
       </c>
       <c r="H693" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>45504.6494907407</v>
+      </c>
+      <c r="B694" t="n">
+        <v>10500</v>
+      </c>
+      <c r="C694" t="n">
+        <v>27.2000007629395</v>
+      </c>
+      <c r="D694" t="n">
+        <v>27</v>
+      </c>
+      <c r="E694" t="n">
+        <v>27</v>
+      </c>
+      <c r="F694" t="n">
+        <v>27</v>
+      </c>
+      <c r="G694" t="s">
+        <v>149</v>
+      </c>
+      <c r="H694" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -744,6 +744,9 @@
   </si>
   <si>
     <t xml:space="preserve">26.7999992370605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.6000003814697</t>
   </si>
 </sst>
 </file>
@@ -19103,7 +19106,7 @@
     </row>
     <row r="694">
       <c r="A694" s="1" t="n">
-        <v>45504.6494907407</v>
+        <v>45504.2916666667</v>
       </c>
       <c r="B694" t="n">
         <v>10500</v>
@@ -19124,6 +19127,32 @@
         <v>149</v>
       </c>
       <c r="H694" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>45505.6494907407</v>
+      </c>
+      <c r="B695" t="n">
+        <v>42450</v>
+      </c>
+      <c r="C695" t="n">
+        <v>29.7999992370605</v>
+      </c>
+      <c r="D695" t="n">
+        <v>29.3999996185303</v>
+      </c>
+      <c r="E695" t="n">
+        <v>29.6000003814697</v>
+      </c>
+      <c r="F695" t="n">
+        <v>29.6000003814697</v>
+      </c>
+      <c r="G695" t="s">
+        <v>244</v>
+      </c>
+      <c r="H695" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -19132,7 +19132,7 @@
     </row>
     <row r="695">
       <c r="A695" s="1" t="n">
-        <v>45505.6494907407</v>
+        <v>45505.2916666667</v>
       </c>
       <c r="B695" t="n">
         <v>42450</v>
@@ -19153,6 +19153,32 @@
         <v>244</v>
       </c>
       <c r="H695" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>45506.622662037</v>
+      </c>
+      <c r="B696" t="n">
+        <v>14350</v>
+      </c>
+      <c r="C696" t="n">
+        <v>29.6000003814697</v>
+      </c>
+      <c r="D696" t="n">
+        <v>29.6000003814697</v>
+      </c>
+      <c r="E696" t="n">
+        <v>29.6000003814697</v>
+      </c>
+      <c r="F696" t="n">
+        <v>29.6000003814697</v>
+      </c>
+      <c r="G696" t="s">
+        <v>244</v>
+      </c>
+      <c r="H696" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="246">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -747,6 +747,9 @@
   </si>
   <si>
     <t xml:space="preserve">29.6000003814697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29.7999992370605</t>
   </si>
 </sst>
 </file>
@@ -19158,7 +19161,7 @@
     </row>
     <row r="696">
       <c r="A696" s="1" t="n">
-        <v>45506.622662037</v>
+        <v>45506.2916666667</v>
       </c>
       <c r="B696" t="n">
         <v>14350</v>
@@ -19179,6 +19182,32 @@
         <v>244</v>
       </c>
       <c r="H696" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>45509.5728125</v>
+      </c>
+      <c r="B697" t="n">
+        <v>50600</v>
+      </c>
+      <c r="C697" t="n">
+        <v>29.7999992370605</v>
+      </c>
+      <c r="D697" t="n">
+        <v>29.7999992370605</v>
+      </c>
+      <c r="E697" t="n">
+        <v>29.7999992370605</v>
+      </c>
+      <c r="F697" t="n">
+        <v>29.7999992370605</v>
+      </c>
+      <c r="G697" t="s">
+        <v>245</v>
+      </c>
+      <c r="H697" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -19187,7 +19187,7 @@
     </row>
     <row r="697">
       <c r="A697" s="1" t="n">
-        <v>45509.5728125</v>
+        <v>45509.2916666667</v>
       </c>
       <c r="B697" t="n">
         <v>50600</v>
@@ -19208,6 +19208,58 @@
         <v>245</v>
       </c>
       <c r="H697" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>45510.2916666667</v>
+      </c>
+      <c r="B698" t="n">
+        <v>700</v>
+      </c>
+      <c r="C698" t="n">
+        <v>30</v>
+      </c>
+      <c r="D698" t="n">
+        <v>29.7999992370605</v>
+      </c>
+      <c r="E698" t="n">
+        <v>29.7999992370605</v>
+      </c>
+      <c r="F698" t="n">
+        <v>30</v>
+      </c>
+      <c r="G698" t="s">
+        <v>59</v>
+      </c>
+      <c r="H698" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>45511.6156712963</v>
+      </c>
+      <c r="B699" t="n">
+        <v>1750</v>
+      </c>
+      <c r="C699" t="n">
+        <v>30</v>
+      </c>
+      <c r="D699" t="n">
+        <v>29.7999992370605</v>
+      </c>
+      <c r="E699" t="n">
+        <v>30</v>
+      </c>
+      <c r="F699" t="n">
+        <v>29.7999992370605</v>
+      </c>
+      <c r="G699" t="s">
+        <v>245</v>
+      </c>
+      <c r="H699" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -19239,7 +19239,7 @@
     </row>
     <row r="699">
       <c r="A699" s="1" t="n">
-        <v>45511.6156712963</v>
+        <v>45511.2916666667</v>
       </c>
       <c r="B699" t="n">
         <v>1750</v>
@@ -19260,6 +19260,32 @@
         <v>245</v>
       </c>
       <c r="H699" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>45512.6247337963</v>
+      </c>
+      <c r="B700" t="n">
+        <v>750</v>
+      </c>
+      <c r="C700" t="n">
+        <v>29.7999992370605</v>
+      </c>
+      <c r="D700" t="n">
+        <v>29.7999992370605</v>
+      </c>
+      <c r="E700" t="n">
+        <v>29.7999992370605</v>
+      </c>
+      <c r="F700" t="n">
+        <v>29.7999992370605</v>
+      </c>
+      <c r="G700" t="s">
+        <v>245</v>
+      </c>
+      <c r="H700" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -19265,7 +19265,7 @@
     </row>
     <row r="700">
       <c r="A700" s="1" t="n">
-        <v>45512.6247337963</v>
+        <v>45512.2916666667</v>
       </c>
       <c r="B700" t="n">
         <v>750</v>
@@ -19286,6 +19286,32 @@
         <v>245</v>
       </c>
       <c r="H700" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>45513.6160185185</v>
+      </c>
+      <c r="B701" t="n">
+        <v>1250</v>
+      </c>
+      <c r="C701" t="n">
+        <v>29.7999992370605</v>
+      </c>
+      <c r="D701" t="n">
+        <v>29.7999992370605</v>
+      </c>
+      <c r="E701" t="n">
+        <v>29.7999992370605</v>
+      </c>
+      <c r="F701" t="n">
+        <v>29.7999992370605</v>
+      </c>
+      <c r="G701" t="s">
+        <v>245</v>
+      </c>
+      <c r="H701" t="s">
         <v>9</v>
       </c>
     </row>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -19291,7 +19291,7 @@
     </row>
     <row r="701">
       <c r="A701" s="1" t="n">
-        <v>45513.6160185185</v>
+        <v>45513.2916666667</v>
       </c>
       <c r="B701" t="n">
         <v>1250</v>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -19315,6 +19315,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>45516.2916666667</v>
+      </c>
+      <c r="B702" t="n">
+        <v>0</v>
+      </c>
+      <c r="C702" t="n">
+        <v>29.7999992370605</v>
+      </c>
+      <c r="D702" t="n">
+        <v>29.7999992370605</v>
+      </c>
+      <c r="E702" t="n">
+        <v>29.7999992370605</v>
+      </c>
+      <c r="F702" t="n">
+        <v>29.7999992370605</v>
+      </c>
+      <c r="G702" t="s">
+        <v>245</v>
+      </c>
+      <c r="H702" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -19341,6 +19341,32 @@
         <v>9</v>
       </c>
     </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>45517.2916666667</v>
+      </c>
+      <c r="B703" t="n">
+        <v>0</v>
+      </c>
+      <c r="C703" t="n">
+        <v>29.7999992370605</v>
+      </c>
+      <c r="D703" t="n">
+        <v>29.7999992370605</v>
+      </c>
+      <c r="E703" t="n">
+        <v>29.7999992370605</v>
+      </c>
+      <c r="F703" t="n">
+        <v>29.7999992370605</v>
+      </c>
+      <c r="G703" t="s">
+        <v>245</v>
+      </c>
+      <c r="H703" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/data/MDC.MI.xlsx
+++ b/data/MDC.MI.xlsx
@@ -757,7 +757,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd hh:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -795,7 +795,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
